--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_BEV.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_BEV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B623274-4DE4-E14C-85F0-546270AEB14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E5D58-5083-C649-8606-8A5EEEC2373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23220" yWindow="5500" windowWidth="21600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="91">
   <si>
     <t>Name:</t>
   </si>
@@ -162,12 +162,6 @@
   </si>
   <si>
     <t>elecsupply</t>
-  </si>
-  <si>
-    <t>passenger_short</t>
-  </si>
-  <si>
-    <t>passenger_long</t>
   </si>
   <si>
     <t>yr</t>
@@ -752,8 +746,8 @@
   <dimension ref="A1:L431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D350" sqref="D350"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -836,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -858,7 +852,7 @@
         <v>conv_pass_BEV</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -867,7 +861,7 @@
         <v>2008</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -910,7 +904,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -933,7 +927,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -959,14 +953,14 @@
         <v>48608.4</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -988,16 +982,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" t="s">
         <v>55</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1019,16 +1013,16 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
         <v>45</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
         <v>47</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1047,22 +1041,22 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1081,22 +1075,22 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>100</v>
       </c>
       <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
         <v>50</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1121,14 +1115,14 @@
         <v>5.1581036049337738</v>
       </c>
       <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" t="s">
         <v>63</v>
-      </c>
-      <c r="J16" t="s">
-        <v>65</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1153,14 +1147,14 @@
         <v>8.4740732413299433</v>
       </c>
       <c r="H17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
         <v>63</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1185,14 +1179,14 @@
         <v>9.5068314811863726</v>
       </c>
       <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s">
         <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>65</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1217,14 +1211,14 @@
         <v>9.2857314300958969</v>
       </c>
       <c r="H19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" t="s">
         <v>63</v>
-      </c>
-      <c r="J19" t="s">
-        <v>65</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1249,14 +1243,14 @@
         <v>8.6877835329093429</v>
       </c>
       <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" t="s">
         <v>63</v>
-      </c>
-      <c r="J20" t="s">
-        <v>65</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1281,14 +1275,14 @@
         <v>8.6815774164364949</v>
       </c>
       <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
         <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>65</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1313,14 +1307,14 @@
         <v>8.6650483561882492</v>
       </c>
       <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
         <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>65</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1345,14 +1339,14 @@
         <v>8.6303943359886155</v>
       </c>
       <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" t="s">
         <v>63</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1377,14 +1371,14 @@
         <v>8.5784675345562178</v>
       </c>
       <c r="H24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" t="s">
         <v>63</v>
-      </c>
-      <c r="J24" t="s">
-        <v>65</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1409,14 +1403,14 @@
         <v>8.3145963147273516</v>
       </c>
       <c r="H25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" t="s">
         <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1441,14 +1435,14 @@
         <v>8.6826675847106696</v>
       </c>
       <c r="H26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" t="s">
         <v>63</v>
-      </c>
-      <c r="J26" t="s">
-        <v>65</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1473,14 +1467,14 @@
         <v>7.8568120446023801</v>
       </c>
       <c r="H27" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" t="s">
         <v>63</v>
-      </c>
-      <c r="J27" t="s">
-        <v>65</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1505,14 +1499,14 @@
         <v>7.6769901882113478</v>
       </c>
       <c r="H28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
         <v>63</v>
-      </c>
-      <c r="J28" t="s">
-        <v>65</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1537,14 +1531,14 @@
         <v>7.3810215702900326</v>
       </c>
       <c r="H29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
         <v>63</v>
-      </c>
-      <c r="J29" t="s">
-        <v>65</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1569,14 +1563,14 @@
         <v>7.0579102257902617</v>
       </c>
       <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
         <v>63</v>
-      </c>
-      <c r="J30" t="s">
-        <v>65</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1601,14 +1595,14 @@
         <v>6.6256004489103377</v>
       </c>
       <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
         <v>63</v>
-      </c>
-      <c r="J31" t="s">
-        <v>65</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1633,14 +1627,14 @@
         <v>6.2918444600853896</v>
       </c>
       <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
         <v>63</v>
-      </c>
-      <c r="J32" t="s">
-        <v>65</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1665,14 +1659,14 @@
         <v>5.8734850501445033</v>
       </c>
       <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
         <v>63</v>
-      </c>
-      <c r="J33" t="s">
-        <v>65</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1697,14 +1691,14 @@
         <v>5.7978195101532224</v>
       </c>
       <c r="H34" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" t="s">
         <v>63</v>
-      </c>
-      <c r="J34" t="s">
-        <v>65</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1729,14 +1723,14 @@
         <v>5.8290989916819882</v>
       </c>
       <c r="H35" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
         <v>63</v>
-      </c>
-      <c r="J35" t="s">
-        <v>65</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1761,14 +1755,14 @@
         <v>7.541919338236645</v>
       </c>
       <c r="H36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
         <v>63</v>
-      </c>
-      <c r="J36" t="s">
-        <v>65</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1793,14 +1787,14 @@
         <v>11.654071731523274</v>
       </c>
       <c r="H37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
         <v>63</v>
-      </c>
-      <c r="J37" t="s">
-        <v>65</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1825,14 +1819,14 @@
         <v>19.463188972442293</v>
       </c>
       <c r="H38" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" t="s">
         <v>63</v>
-      </c>
-      <c r="J38" t="s">
-        <v>65</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1857,14 +1851,14 @@
         <v>29.607807624923659</v>
       </c>
       <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
         <v>63</v>
-      </c>
-      <c r="J39" t="s">
-        <v>65</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1889,14 +1883,14 @@
         <v>48.827292607322683</v>
       </c>
       <c r="H40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" t="s">
         <v>63</v>
-      </c>
-      <c r="J40" t="s">
-        <v>65</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1921,14 +1915,14 @@
         <v>82.440812107069263</v>
       </c>
       <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
         <v>63</v>
-      </c>
-      <c r="J41" t="s">
-        <v>65</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1953,14 +1947,14 @@
         <v>117.56173846630243</v>
       </c>
       <c r="H42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" t="s">
         <v>63</v>
-      </c>
-      <c r="J42" t="s">
-        <v>65</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1985,14 +1979,14 @@
         <v>159.89381432432168</v>
       </c>
       <c r="H43" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
         <v>63</v>
-      </c>
-      <c r="J43" t="s">
-        <v>65</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2017,14 +2011,14 @@
         <v>210.67209141220093</v>
       </c>
       <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
         <v>63</v>
-      </c>
-      <c r="J44" t="s">
-        <v>65</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2049,14 +2043,14 @@
         <v>314.96851894351244</v>
       </c>
       <c r="H45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
         <v>63</v>
-      </c>
-      <c r="J45" t="s">
-        <v>65</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2081,14 +2075,14 @@
         <v>435.48817169452298</v>
       </c>
       <c r="H46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" t="s">
         <v>63</v>
-      </c>
-      <c r="J46" t="s">
-        <v>65</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2113,14 +2107,14 @@
         <v>746.89681384108633</v>
       </c>
       <c r="H47" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
         <v>63</v>
-      </c>
-      <c r="J47" t="s">
-        <v>65</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2145,16 +2139,16 @@
         <v>409</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2179,16 +2173,16 @@
         <v>671</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2213,16 +2207,16 @@
         <v>771</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2247,16 +2241,16 @@
         <v>774</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2281,16 +2275,16 @@
         <v>775</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2315,16 +2309,16 @@
         <v>770</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2349,16 +2343,16 @@
         <v>759</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2383,16 +2377,16 @@
         <v>753</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2417,16 +2411,16 @@
         <v>746</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2451,16 +2445,16 @@
         <v>724</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2485,16 +2479,16 @@
         <v>754</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2519,16 +2513,16 @@
         <v>690</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2553,16 +2547,16 @@
         <v>676</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2587,16 +2581,16 @@
         <v>651</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2621,16 +2615,16 @@
         <v>625</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2655,16 +2649,16 @@
         <v>592</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" t="s">
         <v>72</v>
-      </c>
-      <c r="L63" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2689,16 +2683,16 @@
         <v>562</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" t="s">
         <v>72</v>
-      </c>
-      <c r="L64" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2723,16 +2717,16 @@
         <v>528</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L65" t="s">
         <v>72</v>
-      </c>
-      <c r="L65" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2757,16 +2751,16 @@
         <v>517</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L66" t="s">
         <v>72</v>
-      </c>
-      <c r="L66" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2791,16 +2785,16 @@
         <v>512</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L67" t="s">
         <v>72</v>
-      </c>
-      <c r="L67" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2825,16 +2819,16 @@
         <v>665</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L68" t="s">
         <v>72</v>
-      </c>
-      <c r="L68" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2859,16 +2853,16 @@
         <v>1044</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L69" t="s">
         <v>72</v>
-      </c>
-      <c r="L69" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2893,16 +2887,16 @@
         <v>1758</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K70" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L70" t="s">
         <v>72</v>
-      </c>
-      <c r="L70" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2927,16 +2921,16 @@
         <v>2683</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L71" t="s">
         <v>72</v>
-      </c>
-      <c r="L71" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2961,16 +2955,16 @@
         <v>4439</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L72" t="s">
         <v>72</v>
-      </c>
-      <c r="L72" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2995,16 +2989,16 @@
         <v>7531</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L73" t="s">
         <v>72</v>
-      </c>
-      <c r="L73" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3029,16 +3023,16 @@
         <v>10724</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K74" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L74" t="s">
         <v>72</v>
-      </c>
-      <c r="L74" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3063,16 +3057,16 @@
         <v>14539</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L75" t="s">
         <v>72</v>
-      </c>
-      <c r="L75" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3097,16 +3091,16 @@
         <v>19181</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L76" t="s">
         <v>72</v>
-      </c>
-      <c r="L76" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3131,16 +3125,16 @@
         <v>28716</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K77" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L77" t="s">
         <v>72</v>
-      </c>
-      <c r="L77" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3165,16 +3159,16 @@
         <v>43396</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L78" t="s">
         <v>72</v>
-      </c>
-      <c r="L78" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3199,16 +3193,16 @@
         <v>71697</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L79" t="s">
         <v>72</v>
-      </c>
-      <c r="L79" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3253,14 +3247,14 @@
         <v>262</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3285,14 +3279,14 @@
         <v>100</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3317,14 +3311,14 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3349,14 +3343,14 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3381,14 +3375,14 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3413,14 +3407,14 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,14 +3439,14 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,14 +3471,14 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3509,14 +3503,14 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3541,14 +3535,14 @@
         <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3573,14 +3567,14 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3605,14 +3599,14 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3637,14 +3631,14 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3669,14 +3663,14 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3701,16 +3695,16 @@
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J95" t="s">
+        <v>71</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" t="s">
         <v>75</v>
-      </c>
-      <c r="L95" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3735,16 +3729,16 @@
         <v>9</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J96" t="s">
+        <v>71</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="L96" t="s">
         <v>75</v>
-      </c>
-      <c r="L96" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3769,16 +3763,16 @@
         <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J97" t="s">
+        <v>71</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" t="s">
         <v>75</v>
-      </c>
-      <c r="L97" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3803,16 +3797,16 @@
         <v>24</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J98" t="s">
+        <v>71</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" t="s">
         <v>75</v>
-      </c>
-      <c r="L98" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3837,16 +3831,16 @@
         <v>57</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J99" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" t="s">
         <v>75</v>
-      </c>
-      <c r="L99" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3871,16 +3865,16 @@
         <v>201</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J100" t="s">
+        <v>71</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" t="s">
         <v>75</v>
-      </c>
-      <c r="L100" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3905,16 +3899,16 @@
         <v>452</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J101" t="s">
+        <v>71</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" t="s">
         <v>75</v>
-      </c>
-      <c r="L101" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3939,16 +3933,16 @@
         <v>924</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J102" t="s">
+        <v>71</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="L102" t="s">
         <v>75</v>
-      </c>
-      <c r="L102" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3973,16 +3967,16 @@
         <v>1392</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J103" t="s">
+        <v>71</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" t="s">
         <v>75</v>
-      </c>
-      <c r="L103" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4007,16 +4001,16 @@
         <v>1948</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J104" t="s">
+        <v>71</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="L104" t="s">
         <v>75</v>
-      </c>
-      <c r="L104" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4041,16 +4035,16 @@
         <v>3882</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J105" t="s">
+        <v>71</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" t="s">
         <v>75</v>
-      </c>
-      <c r="L105" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4075,16 +4069,16 @@
         <v>3525</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J106" t="s">
+        <v>71</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" t="s">
         <v>75</v>
-      </c>
-      <c r="L106" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4109,16 +4103,16 @@
         <v>4929</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J107" t="s">
+        <v>71</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" t="s">
         <v>75</v>
-      </c>
-      <c r="L107" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4143,16 +4137,16 @@
         <v>5411</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J108" t="s">
+        <v>71</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="L108" t="s">
         <v>75</v>
-      </c>
-      <c r="L108" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4177,16 +4171,16 @@
         <v>13177</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J109" t="s">
+        <v>71</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="L109" t="s">
         <v>75</v>
-      </c>
-      <c r="L109" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4211,16 +4205,16 @@
         <v>19752</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J110" t="s">
+        <v>71</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" t="s">
         <v>75</v>
-      </c>
-      <c r="L110" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4245,16 +4239,16 @@
         <v>32017</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J111" t="s">
+        <v>71</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="L111" t="s">
         <v>75</v>
-      </c>
-      <c r="L111" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4298,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J113" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4329,13 +4323,13 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J114" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4360,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4391,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L116" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4422,13 +4416,13 @@
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J117" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4453,13 +4447,13 @@
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J118" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L118" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4484,13 +4478,13 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J119" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4515,13 +4509,13 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J120" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4546,13 +4540,13 @@
         <v>22</v>
       </c>
       <c r="H121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L121" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4577,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J122" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L122" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4608,13 +4602,13 @@
         <v>64</v>
       </c>
       <c r="H123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J123" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4639,13 +4633,13 @@
         <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J124" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L124" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4670,13 +4664,13 @@
         <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L125" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4701,13 +4695,13 @@
         <v>26</v>
       </c>
       <c r="H126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J126" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4732,13 +4726,13 @@
         <v>46</v>
       </c>
       <c r="H127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J127" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L127" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4763,13 +4757,13 @@
         <v>39</v>
       </c>
       <c r="H128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L128" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4794,13 +4788,13 @@
         <v>53</v>
       </c>
       <c r="H129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4825,13 +4819,13 @@
         <v>35</v>
       </c>
       <c r="H130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4856,13 +4850,13 @@
         <v>62</v>
       </c>
       <c r="H131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J131" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4887,13 +4881,13 @@
         <v>48</v>
       </c>
       <c r="H132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J132" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L132" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4918,13 +4912,13 @@
         <v>73</v>
       </c>
       <c r="H133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J133" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4949,13 +4943,13 @@
         <v>210</v>
       </c>
       <c r="H134" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J134" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L134" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4980,13 +4974,13 @@
         <v>467</v>
       </c>
       <c r="H135" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L135" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5011,13 +5005,13 @@
         <v>192</v>
       </c>
       <c r="H136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J136" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L136" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5042,13 +5036,13 @@
         <v>790</v>
       </c>
       <c r="H137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J137" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L137" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5073,13 +5067,13 @@
         <v>332</v>
       </c>
       <c r="H138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J138" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5104,13 +5098,13 @@
         <v>1114</v>
       </c>
       <c r="H139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J139" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L139" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5135,13 +5129,13 @@
         <v>769</v>
       </c>
       <c r="H140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J140" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L140" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5166,13 +5160,13 @@
         <v>3642</v>
       </c>
       <c r="H141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J141" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L141" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5197,13 +5191,13 @@
         <v>5072</v>
       </c>
       <c r="H142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J142" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L142" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5228,13 +5222,13 @@
         <v>3716</v>
       </c>
       <c r="H143" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J143" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L143" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5259,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L144" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6259,16 +6253,16 @@
         <v>151264.70588235703</v>
       </c>
       <c r="H196" t="s">
+        <v>79</v>
+      </c>
+      <c r="J196" t="s">
         <v>81</v>
       </c>
-      <c r="J196" t="s">
-        <v>83</v>
-      </c>
       <c r="K196" t="s">
+        <v>80</v>
+      </c>
+      <c r="L196" t="s">
         <v>82</v>
-      </c>
-      <c r="L196" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6293,16 +6287,16 @@
         <v>174161.55333277243</v>
       </c>
       <c r="H197" t="s">
+        <v>79</v>
+      </c>
+      <c r="J197" t="s">
         <v>81</v>
       </c>
-      <c r="J197" t="s">
-        <v>83</v>
-      </c>
       <c r="K197" t="s">
+        <v>80</v>
+      </c>
+      <c r="L197" t="s">
         <v>82</v>
-      </c>
-      <c r="L197" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -6327,16 +6321,16 @@
         <v>152660.72489601807</v>
       </c>
       <c r="H198" t="s">
+        <v>79</v>
+      </c>
+      <c r="J198" t="s">
         <v>81</v>
       </c>
-      <c r="J198" t="s">
-        <v>83</v>
-      </c>
       <c r="K198" t="s">
+        <v>80</v>
+      </c>
+      <c r="L198" t="s">
         <v>82</v>
-      </c>
-      <c r="L198" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6361,16 +6355,16 @@
         <v>92250.362125485641</v>
       </c>
       <c r="H199" t="s">
+        <v>79</v>
+      </c>
+      <c r="J199" t="s">
         <v>81</v>
       </c>
-      <c r="J199" t="s">
-        <v>83</v>
-      </c>
       <c r="K199" t="s">
+        <v>80</v>
+      </c>
+      <c r="L199" t="s">
         <v>82</v>
-      </c>
-      <c r="L199" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6395,16 +6389,16 @@
         <v>81176.73808482739</v>
       </c>
       <c r="H200" t="s">
+        <v>79</v>
+      </c>
+      <c r="J200" t="s">
         <v>81</v>
       </c>
-      <c r="J200" t="s">
-        <v>83</v>
-      </c>
       <c r="K200" t="s">
+        <v>80</v>
+      </c>
+      <c r="L200" t="s">
         <v>82</v>
-      </c>
-      <c r="L200" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -6429,16 +6423,16 @@
         <v>57143.749186938789</v>
       </c>
       <c r="H201" t="s">
+        <v>79</v>
+      </c>
+      <c r="J201" t="s">
         <v>81</v>
       </c>
-      <c r="J201" t="s">
-        <v>83</v>
-      </c>
       <c r="K201" t="s">
+        <v>80</v>
+      </c>
+      <c r="L201" t="s">
         <v>82</v>
-      </c>
-      <c r="L201" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6463,16 +6457,16 @@
         <v>45991.839399379707</v>
       </c>
       <c r="H202" t="s">
+        <v>79</v>
+      </c>
+      <c r="J202" t="s">
         <v>81</v>
       </c>
-      <c r="J202" t="s">
-        <v>83</v>
-      </c>
       <c r="K202" t="s">
+        <v>80</v>
+      </c>
+      <c r="L202" t="s">
         <v>82</v>
-      </c>
-      <c r="L202" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6497,16 +6491,16 @@
         <v>43594.936708860849</v>
       </c>
       <c r="H203" t="s">
+        <v>79</v>
+      </c>
+      <c r="J203" t="s">
         <v>81</v>
       </c>
-      <c r="J203" t="s">
-        <v>83</v>
-      </c>
       <c r="K203" t="s">
+        <v>80</v>
+      </c>
+      <c r="L203" t="s">
         <v>82</v>
-      </c>
-      <c r="L203" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -7178,16 +7172,16 @@
         <v>55400</v>
       </c>
       <c r="H238" t="s">
+        <v>83</v>
+      </c>
+      <c r="J238" t="s">
+        <v>84</v>
+      </c>
+      <c r="K238" t="s">
+        <v>86</v>
+      </c>
+      <c r="L238" t="s">
         <v>85</v>
-      </c>
-      <c r="J238" t="s">
-        <v>86</v>
-      </c>
-      <c r="K238" t="s">
-        <v>88</v>
-      </c>
-      <c r="L238" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -7255,7 +7249,7 @@
         <v>units</v>
       </c>
       <c r="L241" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -7285,7 +7279,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7315,7 +7309,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7345,7 +7339,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7375,7 +7369,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7405,7 +7399,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7435,7 +7429,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7465,7 +7459,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7495,7 +7489,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7525,7 +7519,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7555,7 +7549,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7585,7 +7579,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7615,7 +7609,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7645,7 +7639,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7675,7 +7669,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7705,7 +7699,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7735,7 +7729,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7765,7 +7759,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7795,7 +7789,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7825,7 +7819,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7855,7 +7849,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7885,7 +7879,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7915,7 +7909,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7945,7 +7939,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7975,7 +7969,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -8005,7 +7999,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -8035,7 +8029,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -8065,7 +8059,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8095,7 +8089,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -8125,7 +8119,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8155,7 +8149,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8181,7 +8175,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8207,7 +8201,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8233,7 +8227,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8259,7 +8253,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8285,7 +8279,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8311,7 +8305,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8337,7 +8331,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8363,7 +8357,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8389,7 +8383,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8415,7 +8409,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8441,7 +8435,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8467,7 +8461,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8493,7 +8487,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8518,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="L285" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8543,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8568,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8593,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8618,7 +8612,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8643,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8668,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8693,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8718,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8743,7 +8737,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8768,7 +8762,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8793,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8818,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8843,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8868,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8893,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8918,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8943,7 +8937,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8968,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8993,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -9018,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -9043,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -9068,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -9093,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -9118,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9143,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9168,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9193,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9218,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9243,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9268,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9293,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9318,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9343,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9368,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9393,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9418,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9443,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9468,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9493,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9518,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9543,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9568,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9593,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9618,7 +9612,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9643,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9668,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9693,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9718,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9743,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9768,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -10302,16 +10296,16 @@
         <v>6.4910630297733835E-6</v>
       </c>
       <c r="H359" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J359" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L359" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10339,16 +10333,16 @@
         <v>6.3042485314316079E-6</v>
       </c>
       <c r="H360" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J360" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L360" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10376,16 +10370,16 @@
         <v>5.5421686626796339E-6</v>
       </c>
       <c r="H361" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J361" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L361" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10413,16 +10407,16 @@
         <v>5.7190219795282809E-6</v>
       </c>
       <c r="H362" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J362" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L362" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10450,16 +10444,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H363" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J363" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L363" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10487,16 +10481,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H364" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J364" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L364" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10524,16 +10518,16 @@
         <v>5.8203289819894234E-6</v>
       </c>
       <c r="H365" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J365" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L365" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10561,16 +10555,16 @@
         <v>5.5735056497790744E-6</v>
       </c>
       <c r="H366" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J366" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L366" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -10598,16 +10592,16 @@
         <v>5.2752293686874E-6</v>
       </c>
       <c r="H367" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J367" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L367" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -10629,22 +10623,22 @@
         <v>1990</v>
       </c>
       <c r="F368" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G368">
         <v>1.6619623743333447</v>
       </c>
       <c r="H368" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J368" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L368" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -10666,22 +10660,22 @@
         <v>1991</v>
       </c>
       <c r="F369" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G369">
         <v>1.6529349561812849</v>
       </c>
       <c r="H369" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J369" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L369" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -10703,22 +10697,22 @@
         <v>1992</v>
       </c>
       <c r="F370" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G370">
         <v>1.6439015880381007</v>
       </c>
       <c r="H370" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J370" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L370" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -10740,22 +10734,22 @@
         <v>1993</v>
       </c>
       <c r="F371" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G371">
         <v>1.6348977095326076</v>
       </c>
       <c r="H371" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J371" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L371" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -10777,22 +10771,22 @@
         <v>1994</v>
       </c>
       <c r="F372" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G372">
         <v>1.6359409990814882</v>
       </c>
       <c r="H372" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J372" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K372" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L372" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10814,22 +10808,22 @@
         <v>1995</v>
       </c>
       <c r="F373" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G373">
         <v>1.627796211649325</v>
       </c>
       <c r="H373" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J373" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K373" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L373" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10851,22 +10845,22 @@
         <v>1996</v>
       </c>
       <c r="F374" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G374">
         <v>1.6201500029414151</v>
       </c>
       <c r="H374" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J374" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K374" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L374" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -10888,22 +10882,22 @@
         <v>1997</v>
       </c>
       <c r="F375" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G375">
         <v>1.6129948320503564</v>
       </c>
       <c r="H375" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J375" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K375" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L375" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -10925,22 +10919,22 @@
         <v>1998</v>
       </c>
       <c r="F376" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G376">
         <v>1.6062654456809142</v>
       </c>
       <c r="H376" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J376" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L376" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -10962,22 +10956,22 @@
         <v>1999</v>
       </c>
       <c r="F377" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G377">
         <v>1.5998922064513665</v>
       </c>
       <c r="H377" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J377" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L377" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -10999,22 +10993,22 @@
         <v>2000</v>
       </c>
       <c r="F378" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G378">
         <v>1.5938163690116243</v>
       </c>
       <c r="H378" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J378" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K378" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L378" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -11036,22 +11030,22 @@
         <v>2001</v>
       </c>
       <c r="F379" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G379">
         <v>1.5906754879369145</v>
       </c>
       <c r="H379" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J379" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K379" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L379" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11073,22 +11067,22 @@
         <v>2002</v>
       </c>
       <c r="F380" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G380">
         <v>1.587189549799211</v>
       </c>
       <c r="H380" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J380" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K380" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L380" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11110,22 +11104,22 @@
         <v>2003</v>
       </c>
       <c r="F381" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G381">
         <v>1.5834524958984122</v>
       </c>
       <c r="H381" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J381" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K381" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L381" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11147,22 +11141,22 @@
         <v>2004</v>
       </c>
       <c r="F382" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G382">
         <v>1.5795519905141138</v>
       </c>
       <c r="H382" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J382" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K382" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L382" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11184,22 +11178,22 @@
         <v>2005</v>
       </c>
       <c r="F383" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G383">
         <v>1.5742273401858171</v>
       </c>
       <c r="H383" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J383" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K383" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L383" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11221,22 +11215,22 @@
         <v>2006</v>
       </c>
       <c r="F384" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G384">
         <v>1.5770757432902991</v>
       </c>
       <c r="H384" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J384" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K384" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L384" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11258,22 +11252,22 @@
         <v>2007</v>
       </c>
       <c r="F385" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G385">
         <v>1.5810502599514888</v>
       </c>
       <c r="H385" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J385" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L385" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11295,22 +11289,22 @@
         <v>2008</v>
       </c>
       <c r="F386" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G386">
         <v>1.5868573677903355</v>
       </c>
       <c r="H386" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J386" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L386" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11332,22 +11326,22 @@
         <v>2009</v>
       </c>
       <c r="F387" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G387">
         <v>1.5941421065031705</v>
       </c>
       <c r="H387" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J387" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L387" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11369,22 +11363,22 @@
         <v>2010</v>
       </c>
       <c r="F388" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G388">
         <v>1.6027499464678339</v>
       </c>
       <c r="H388" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J388" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K388" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L388" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11406,22 +11400,22 @@
         <v>2011</v>
       </c>
       <c r="F389" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G389">
         <v>1.5952803755147054</v>
       </c>
       <c r="H389" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J389" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L389" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11443,22 +11437,22 @@
         <v>2012</v>
       </c>
       <c r="F390" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G390">
         <v>1.5881061022973417</v>
       </c>
       <c r="H390" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J390" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L390" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11480,22 +11474,22 @@
         <v>2013</v>
       </c>
       <c r="F391" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G391">
         <v>1.580437033556165</v>
       </c>
       <c r="H391" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J391" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K391" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L391" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11517,22 +11511,22 @@
         <v>2014</v>
       </c>
       <c r="F392" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G392">
         <v>1.5720933219641362</v>
       </c>
       <c r="H392" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J392" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K392" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L392" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11554,22 +11548,22 @@
         <v>2015</v>
       </c>
       <c r="F393" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G393">
         <v>1.5638595650126308</v>
       </c>
       <c r="H393" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J393" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L393" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11591,22 +11585,22 @@
         <v>2016</v>
       </c>
       <c r="F394" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G394">
         <v>1.5655707775003618</v>
       </c>
       <c r="H394" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J394" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K394" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L394" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11628,22 +11622,22 @@
         <v>2017</v>
       </c>
       <c r="F395" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G395">
         <v>1.5669067656006332</v>
       </c>
       <c r="H395" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J395" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L395" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11665,22 +11659,22 @@
         <v>2018</v>
       </c>
       <c r="F396" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G396">
         <v>1.5680560012794198</v>
       </c>
       <c r="H396" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J396" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L396" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11702,22 +11696,22 @@
         <v>2019</v>
       </c>
       <c r="F397" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G397">
         <v>1.56899278989477</v>
       </c>
       <c r="H397" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J397" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L397" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11739,22 +11733,22 @@
         <v>2020</v>
       </c>
       <c r="F398" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G398">
         <v>1.5830542936008962</v>
       </c>
       <c r="H398" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J398" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K398" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L398" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11776,22 +11770,22 @@
         <v>2021</v>
       </c>
       <c r="F399" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G399">
         <v>1.5781479220274037</v>
       </c>
       <c r="H399" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J399" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K399" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L399" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -11813,23 +11807,23 @@
         <v>1990</v>
       </c>
       <c r="F400" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G400">
         <f>G368</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H400" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J400" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K400" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L400" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -11851,23 +11845,23 @@
         <v>1991</v>
       </c>
       <c r="F401" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G401">
         <f t="shared" ref="G401:G431" si="15">G369</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H401" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J401" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K401" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L401" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -11889,23 +11883,23 @@
         <v>1992</v>
       </c>
       <c r="F402" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G402">
         <f t="shared" si="15"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H402" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J402" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L402" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -11927,23 +11921,23 @@
         <v>1993</v>
       </c>
       <c r="F403" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G403">
         <f t="shared" si="15"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H403" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J403" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K403" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L403" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -11965,23 +11959,23 @@
         <v>1994</v>
       </c>
       <c r="F404" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G404">
         <f t="shared" si="15"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H404" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J404" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K404" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L404" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -12003,23 +11997,23 @@
         <v>1995</v>
       </c>
       <c r="F405" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G405">
         <f t="shared" si="15"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H405" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J405" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K405" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L405" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -12041,23 +12035,23 @@
         <v>1996</v>
       </c>
       <c r="F406" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G406">
         <f t="shared" si="15"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H406" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J406" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K406" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L406" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -12079,23 +12073,23 @@
         <v>1997</v>
       </c>
       <c r="F407" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G407">
         <f t="shared" si="15"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H407" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J407" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K407" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L407" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -12117,23 +12111,23 @@
         <v>1998</v>
       </c>
       <c r="F408" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G408">
         <f t="shared" si="15"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H408" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J408" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K408" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L408" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -12155,23 +12149,23 @@
         <v>1999</v>
       </c>
       <c r="F409" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G409">
         <f t="shared" si="15"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H409" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J409" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K409" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L409" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -12193,23 +12187,23 @@
         <v>2000</v>
       </c>
       <c r="F410" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G410">
         <f t="shared" si="15"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H410" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J410" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K410" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L410" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -12231,23 +12225,23 @@
         <v>2001</v>
       </c>
       <c r="F411" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G411">
         <f t="shared" si="15"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H411" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J411" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K411" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L411" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -12269,23 +12263,23 @@
         <v>2002</v>
       </c>
       <c r="F412" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G412">
         <f t="shared" si="15"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H412" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J412" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K412" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L412" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -12307,23 +12301,23 @@
         <v>2003</v>
       </c>
       <c r="F413" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G413">
         <f t="shared" si="15"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H413" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J413" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K413" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L413" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12345,23 +12339,23 @@
         <v>2004</v>
       </c>
       <c r="F414" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G414">
         <f t="shared" si="15"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H414" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J414" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K414" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L414" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12383,23 +12377,23 @@
         <v>2005</v>
       </c>
       <c r="F415" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G415">
         <f t="shared" si="15"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H415" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J415" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K415" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L415" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12421,23 +12415,23 @@
         <v>2006</v>
       </c>
       <c r="F416" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G416">
         <f t="shared" si="15"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H416" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J416" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K416" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L416" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12459,23 +12453,23 @@
         <v>2007</v>
       </c>
       <c r="F417" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G417">
         <f t="shared" si="15"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H417" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J417" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L417" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12497,23 +12491,23 @@
         <v>2008</v>
       </c>
       <c r="F418" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G418">
         <f t="shared" si="15"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H418" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J418" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L418" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12535,23 +12529,23 @@
         <v>2009</v>
       </c>
       <c r="F419" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G419">
         <f t="shared" si="15"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H419" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J419" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K419" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L419" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12573,23 +12567,23 @@
         <v>2010</v>
       </c>
       <c r="F420" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G420">
         <f t="shared" si="15"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H420" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J420" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K420" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L420" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12611,23 +12605,23 @@
         <v>2011</v>
       </c>
       <c r="F421" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G421">
         <f t="shared" si="15"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H421" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J421" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L421" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12649,23 +12643,23 @@
         <v>2012</v>
       </c>
       <c r="F422" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G422">
         <f t="shared" si="15"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H422" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J422" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L422" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12687,23 +12681,23 @@
         <v>2013</v>
       </c>
       <c r="F423" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G423">
         <f t="shared" si="15"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H423" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J423" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K423" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L423" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12725,23 +12719,23 @@
         <v>2014</v>
       </c>
       <c r="F424" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G424">
         <f t="shared" si="15"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H424" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J424" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K424" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L424" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12763,23 +12757,23 @@
         <v>2015</v>
       </c>
       <c r="F425" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G425">
         <f t="shared" si="15"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H425" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J425" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L425" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12801,23 +12795,23 @@
         <v>2016</v>
       </c>
       <c r="F426" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G426">
         <f t="shared" si="15"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H426" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J426" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K426" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L426" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12839,23 +12833,23 @@
         <v>2017</v>
       </c>
       <c r="F427" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G427">
         <f t="shared" si="15"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H427" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J427" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L427" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -12877,23 +12871,23 @@
         <v>2018</v>
       </c>
       <c r="F428" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G428">
         <f t="shared" si="15"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H428" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J428" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L428" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -12915,23 +12909,23 @@
         <v>2019</v>
       </c>
       <c r="F429" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G429">
         <f t="shared" si="15"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H429" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J429" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K429" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L429" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -12953,23 +12947,23 @@
         <v>2020</v>
       </c>
       <c r="F430" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G430">
         <f t="shared" si="15"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H430" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J430" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K430" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L430" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -12991,23 +12985,23 @@
         <v>2021</v>
       </c>
       <c r="F431" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G431">
         <f t="shared" si="15"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H431" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J431" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K431" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L431" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_BEV.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_BEV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E5D58-5083-C649-8606-8A5EEEC2373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997E21AC-514B-B847-B846-940EF53346A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23220" yWindow="5500" windowWidth="21600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="90">
   <si>
     <t>Name:</t>
   </si>
@@ -182,18 +182,6 @@
     <t>vkm/h</t>
   </si>
   <si>
-    <t>Speed limit built area</t>
-  </si>
-  <si>
-    <t>Speed limit expressway</t>
-  </si>
-  <si>
-    <t>Swiss confederation</t>
-  </si>
-  <si>
-    <t>https://www.ch.ch/en/vehicles-and-traffic/how-to-behave-in-road-traffic/traffic-regulations/driving-over-the-speed-limit/</t>
-  </si>
-  <si>
     <t>Mvkm/unit</t>
   </si>
   <si>
@@ -307,6 +295,15 @@
   <si>
     <t>Mvkm/kWh</t>
   </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -409,7 +406,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -747,7 +755,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -768,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -830,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -852,7 +860,7 @@
         <v>conv_pass_BEV</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -904,7 +912,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -927,7 +935,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -950,17 +958,17 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>48608.4</v>
+        <v>38420.400000000001</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -982,16 +990,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1041,22 +1049,22 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="H14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1075,23 +1083,18 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" t="s">
-        <v>50</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
@@ -1115,14 +1118,14 @@
         <v>5.1581036049337738</v>
       </c>
       <c r="H16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1147,14 +1150,14 @@
         <v>8.4740732413299433</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1179,14 +1182,14 @@
         <v>9.5068314811863726</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1211,14 +1214,14 @@
         <v>9.2857314300958969</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1243,14 +1246,14 @@
         <v>8.6877835329093429</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1275,14 +1278,14 @@
         <v>8.6815774164364949</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1307,14 +1310,14 @@
         <v>8.6650483561882492</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1339,14 +1342,14 @@
         <v>8.6303943359886155</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1371,14 +1374,14 @@
         <v>8.5784675345562178</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1403,14 +1406,14 @@
         <v>8.3145963147273516</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1435,14 +1438,14 @@
         <v>8.6826675847106696</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1467,14 +1470,14 @@
         <v>7.8568120446023801</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1499,14 +1502,14 @@
         <v>7.6769901882113478</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1531,14 +1534,14 @@
         <v>7.3810215702900326</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1563,14 +1566,14 @@
         <v>7.0579102257902617</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1595,14 +1598,14 @@
         <v>6.6256004489103377</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1627,14 +1630,14 @@
         <v>6.2918444600853896</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1659,14 +1662,14 @@
         <v>5.8734850501445033</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1691,14 +1694,14 @@
         <v>5.7978195101532224</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1723,14 +1726,14 @@
         <v>5.8290989916819882</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1755,14 +1758,14 @@
         <v>7.541919338236645</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1787,14 +1790,14 @@
         <v>11.654071731523274</v>
       </c>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1819,14 +1822,14 @@
         <v>19.463188972442293</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1851,14 +1854,14 @@
         <v>29.607807624923659</v>
       </c>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1883,14 +1886,14 @@
         <v>48.827292607322683</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1915,14 +1918,14 @@
         <v>82.440812107069263</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1947,14 +1950,14 @@
         <v>117.56173846630243</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1979,14 +1982,14 @@
         <v>159.89381432432168</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2011,14 +2014,14 @@
         <v>210.67209141220093</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2043,14 +2046,14 @@
         <v>314.96851894351244</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2075,14 +2078,14 @@
         <v>435.48817169452298</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2107,14 +2110,14 @@
         <v>746.89681384108633</v>
       </c>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2142,13 +2145,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2176,13 +2179,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2210,13 +2213,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L50" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2244,13 +2247,13 @@
         <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2278,13 +2281,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2312,13 +2315,13 @@
         <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2346,13 +2349,13 @@
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2380,13 +2383,13 @@
         <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2414,13 +2417,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2448,13 +2451,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2482,13 +2485,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2516,13 +2519,13 @@
         <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2550,13 +2553,13 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2584,13 +2587,13 @@
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L61" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2618,13 +2621,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2652,13 +2655,13 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2686,13 +2689,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2720,13 +2723,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2754,13 +2757,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2788,13 +2791,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2822,13 +2825,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2856,13 +2859,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L69" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2890,13 +2893,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L70" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2924,13 +2927,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2958,13 +2961,13 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2992,13 +2995,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -3026,13 +3029,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3060,13 +3063,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L75" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3094,13 +3097,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3128,13 +3131,13 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3162,13 +3165,13 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L78" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3196,13 +3199,13 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3250,11 +3253,11 @@
         <v>44</v>
       </c>
       <c r="J81" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K81" s="2"/>
       <c r="L81" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3282,11 +3285,11 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3314,11 +3317,11 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3346,11 +3349,11 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3378,11 +3381,11 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3410,11 +3413,11 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3442,11 +3445,11 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3474,11 +3477,11 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3506,11 +3509,11 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3538,11 +3541,11 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3570,11 +3573,11 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3602,11 +3605,11 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3634,11 +3637,11 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3666,11 +3669,11 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3698,13 +3701,13 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
+        <v>67</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L95" t="s">
         <v>71</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L95" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3732,13 +3735,13 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L96" t="s">
         <v>71</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L96" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3766,13 +3769,13 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L97" t="s">
         <v>71</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L97" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3800,13 +3803,13 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L98" t="s">
         <v>71</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L98" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3834,13 +3837,13 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L99" t="s">
         <v>71</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L99" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3868,13 +3871,13 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L100" t="s">
         <v>71</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L100" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3902,13 +3905,13 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L101" t="s">
         <v>71</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L101" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3936,13 +3939,13 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
+        <v>67</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L102" t="s">
         <v>71</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L102" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3970,13 +3973,13 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L103" t="s">
         <v>71</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L103" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4004,13 +4007,13 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L104" t="s">
         <v>71</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L104" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4038,13 +4041,13 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
+        <v>67</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L105" t="s">
         <v>71</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L105" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4072,13 +4075,13 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
+        <v>67</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L106" t="s">
         <v>71</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L106" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4106,13 +4109,13 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
+        <v>67</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L107" t="s">
         <v>71</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L107" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4140,13 +4143,13 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
+        <v>67</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L108" t="s">
         <v>71</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L108" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4174,13 +4177,13 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
+        <v>67</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L109" t="s">
         <v>71</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L109" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4208,13 +4211,13 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
+        <v>67</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L110" t="s">
         <v>71</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L110" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4242,13 +4245,13 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L111" t="s">
         <v>71</v>
-      </c>
-      <c r="K111" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L111" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4295,10 +4298,10 @@
         <v>44</v>
       </c>
       <c r="J113" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L113" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4326,10 +4329,10 @@
         <v>44</v>
       </c>
       <c r="J114" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L114" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4357,10 +4360,10 @@
         <v>44</v>
       </c>
       <c r="J115" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L115" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4388,10 +4391,10 @@
         <v>44</v>
       </c>
       <c r="J116" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L116" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4419,10 +4422,10 @@
         <v>44</v>
       </c>
       <c r="J117" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L117" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4450,10 +4453,10 @@
         <v>44</v>
       </c>
       <c r="J118" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L118" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4481,10 +4484,10 @@
         <v>44</v>
       </c>
       <c r="J119" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L119" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4512,10 +4515,10 @@
         <v>44</v>
       </c>
       <c r="J120" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L120" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4543,10 +4546,10 @@
         <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L121" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4574,10 +4577,10 @@
         <v>44</v>
       </c>
       <c r="J122" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L122" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4605,10 +4608,10 @@
         <v>44</v>
       </c>
       <c r="J123" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L123" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4636,10 +4639,10 @@
         <v>44</v>
       </c>
       <c r="J124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L124" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4667,10 +4670,10 @@
         <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L125" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4698,10 +4701,10 @@
         <v>44</v>
       </c>
       <c r="J126" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L126" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4729,10 +4732,10 @@
         <v>44</v>
       </c>
       <c r="J127" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L127" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4760,10 +4763,10 @@
         <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L128" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4791,10 +4794,10 @@
         <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L129" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4822,10 +4825,10 @@
         <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L130" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4853,10 +4856,10 @@
         <v>44</v>
       </c>
       <c r="J131" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L131" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4884,10 +4887,10 @@
         <v>44</v>
       </c>
       <c r="J132" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L132" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4915,10 +4918,10 @@
         <v>44</v>
       </c>
       <c r="J133" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L133" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4946,10 +4949,10 @@
         <v>44</v>
       </c>
       <c r="J134" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L134" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4977,10 +4980,10 @@
         <v>44</v>
       </c>
       <c r="J135" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L135" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5008,10 +5011,10 @@
         <v>44</v>
       </c>
       <c r="J136" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L136" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5039,10 +5042,10 @@
         <v>44</v>
       </c>
       <c r="J137" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L137" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5070,10 +5073,10 @@
         <v>44</v>
       </c>
       <c r="J138" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L138" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5101,10 +5104,10 @@
         <v>44</v>
       </c>
       <c r="J139" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L139" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5132,10 +5135,10 @@
         <v>44</v>
       </c>
       <c r="J140" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L140" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5163,10 +5166,10 @@
         <v>44</v>
       </c>
       <c r="J141" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L141" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5194,10 +5197,10 @@
         <v>44</v>
       </c>
       <c r="J142" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L142" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5225,10 +5228,10 @@
         <v>44</v>
       </c>
       <c r="J143" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L143" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5253,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L144" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6253,16 +6256,16 @@
         <v>151264.70588235703</v>
       </c>
       <c r="H196" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J196" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K196" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L196" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6287,16 +6290,16 @@
         <v>174161.55333277243</v>
       </c>
       <c r="H197" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J197" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K197" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L197" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -6321,16 +6324,16 @@
         <v>152660.72489601807</v>
       </c>
       <c r="H198" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J198" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K198" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L198" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6355,16 +6358,16 @@
         <v>92250.362125485641</v>
       </c>
       <c r="H199" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J199" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K199" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L199" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6389,16 +6392,16 @@
         <v>81176.73808482739</v>
       </c>
       <c r="H200" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J200" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K200" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L200" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -6423,16 +6426,16 @@
         <v>57143.749186938789</v>
       </c>
       <c r="H201" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J201" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K201" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L201" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6457,16 +6460,16 @@
         <v>45991.839399379707</v>
       </c>
       <c r="H202" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J202" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K202" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L202" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6491,16 +6494,16 @@
         <v>43594.936708860849</v>
       </c>
       <c r="H203" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J203" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K203" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L203" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -7172,16 +7175,16 @@
         <v>55400</v>
       </c>
       <c r="H238" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J238" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K238" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L238" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -7249,7 +7252,7 @@
         <v>units</v>
       </c>
       <c r="L241" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -7279,7 +7282,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7309,7 +7312,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7339,7 +7342,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7369,7 +7372,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7399,7 +7402,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7429,7 +7432,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7459,7 +7462,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7489,7 +7492,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7519,7 +7522,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7549,7 +7552,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7579,7 +7582,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7609,7 +7612,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7639,7 +7642,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7669,7 +7672,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7699,7 +7702,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7729,7 +7732,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7759,7 +7762,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7789,7 +7792,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7819,7 +7822,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7849,7 +7852,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7879,7 +7882,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7909,7 +7912,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7939,7 +7942,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7969,7 +7972,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7999,7 +8002,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -8029,7 +8032,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -8059,7 +8062,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8089,7 +8092,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -8119,7 +8122,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8149,7 +8152,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8175,7 +8178,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8201,7 +8204,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8227,7 +8230,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8253,7 +8256,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8279,7 +8282,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8305,7 +8308,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8331,7 +8334,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8357,7 +8360,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8383,7 +8386,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8409,7 +8412,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8435,7 +8438,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8461,7 +8464,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8487,7 +8490,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8512,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="L285" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8537,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8562,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8587,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8612,7 +8615,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8637,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8662,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8687,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8712,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8737,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8762,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8787,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8812,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8837,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8862,7 +8865,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8887,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8912,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8937,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8962,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8987,7 +8990,7 @@
         <v>0</v>
       </c>
       <c r="L304" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -9012,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -9037,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -9062,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -9087,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -9112,7 +9115,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9137,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9162,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9187,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9212,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9237,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9262,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9287,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9312,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9337,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9362,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9387,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9412,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9437,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9462,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9487,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9512,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9537,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9562,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9587,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9612,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9637,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9662,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9687,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9712,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9737,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9762,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -10296,16 +10299,16 @@
         <v>6.4910630297733835E-6</v>
       </c>
       <c r="H359" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J359" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L359" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -10333,16 +10336,16 @@
         <v>6.3042485314316079E-6</v>
       </c>
       <c r="H360" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J360" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L360" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10370,16 +10373,16 @@
         <v>5.5421686626796339E-6</v>
       </c>
       <c r="H361" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J361" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L361" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10407,16 +10410,16 @@
         <v>5.7190219795282809E-6</v>
       </c>
       <c r="H362" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J362" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L362" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10444,16 +10447,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H363" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J363" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L363" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10481,16 +10484,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H364" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J364" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L364" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10518,16 +10521,16 @@
         <v>5.8203289819894234E-6</v>
       </c>
       <c r="H365" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J365" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L365" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10555,16 +10558,16 @@
         <v>5.5735056497790744E-6</v>
       </c>
       <c r="H366" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J366" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L366" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -10592,16 +10595,16 @@
         <v>5.2752293686874E-6</v>
       </c>
       <c r="H367" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J367" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L367" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -10623,22 +10626,22 @@
         <v>1990</v>
       </c>
       <c r="F368" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G368">
         <v>1.6619623743333447</v>
       </c>
       <c r="H368" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J368" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K368" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L368" t="s">
         <v>58</v>
-      </c>
-      <c r="L368" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -10660,22 +10663,22 @@
         <v>1991</v>
       </c>
       <c r="F369" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G369">
         <v>1.6529349561812849</v>
       </c>
       <c r="H369" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J369" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K369" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L369" t="s">
         <v>58</v>
-      </c>
-      <c r="L369" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -10697,22 +10700,22 @@
         <v>1992</v>
       </c>
       <c r="F370" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G370">
         <v>1.6439015880381007</v>
       </c>
       <c r="H370" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J370" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K370" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L370" t="s">
         <v>58</v>
-      </c>
-      <c r="L370" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -10734,22 +10737,22 @@
         <v>1993</v>
       </c>
       <c r="F371" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G371">
         <v>1.6348977095326076</v>
       </c>
       <c r="H371" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J371" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K371" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L371" t="s">
         <v>58</v>
-      </c>
-      <c r="L371" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -10771,22 +10774,22 @@
         <v>1994</v>
       </c>
       <c r="F372" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G372">
         <v>1.6359409990814882</v>
       </c>
       <c r="H372" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J372" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K372" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L372" t="s">
         <v>58</v>
-      </c>
-      <c r="L372" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10808,22 +10811,22 @@
         <v>1995</v>
       </c>
       <c r="F373" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G373">
         <v>1.627796211649325</v>
       </c>
       <c r="H373" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J373" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K373" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L373" t="s">
         <v>58</v>
-      </c>
-      <c r="L373" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10845,22 +10848,22 @@
         <v>1996</v>
       </c>
       <c r="F374" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G374">
         <v>1.6201500029414151</v>
       </c>
       <c r="H374" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J374" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K374" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L374" t="s">
         <v>58</v>
-      </c>
-      <c r="L374" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -10882,22 +10885,22 @@
         <v>1997</v>
       </c>
       <c r="F375" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G375">
         <v>1.6129948320503564</v>
       </c>
       <c r="H375" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J375" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K375" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L375" t="s">
         <v>58</v>
-      </c>
-      <c r="L375" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -10919,22 +10922,22 @@
         <v>1998</v>
       </c>
       <c r="F376" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G376">
         <v>1.6062654456809142</v>
       </c>
       <c r="H376" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J376" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K376" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L376" t="s">
         <v>58</v>
-      </c>
-      <c r="L376" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -10956,22 +10959,22 @@
         <v>1999</v>
       </c>
       <c r="F377" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G377">
         <v>1.5998922064513665</v>
       </c>
       <c r="H377" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J377" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K377" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L377" t="s">
         <v>58</v>
-      </c>
-      <c r="L377" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -10993,22 +10996,22 @@
         <v>2000</v>
       </c>
       <c r="F378" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G378">
         <v>1.5938163690116243</v>
       </c>
       <c r="H378" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J378" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K378" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L378" t="s">
         <v>58</v>
-      </c>
-      <c r="L378" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -11030,22 +11033,22 @@
         <v>2001</v>
       </c>
       <c r="F379" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G379">
         <v>1.5906754879369145</v>
       </c>
       <c r="H379" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J379" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K379" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L379" t="s">
         <v>58</v>
-      </c>
-      <c r="L379" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -11067,22 +11070,22 @@
         <v>2002</v>
       </c>
       <c r="F380" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G380">
         <v>1.587189549799211</v>
       </c>
       <c r="H380" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J380" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K380" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L380" t="s">
         <v>58</v>
-      </c>
-      <c r="L380" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -11104,22 +11107,22 @@
         <v>2003</v>
       </c>
       <c r="F381" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G381">
         <v>1.5834524958984122</v>
       </c>
       <c r="H381" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J381" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K381" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L381" t="s">
         <v>58</v>
-      </c>
-      <c r="L381" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -11141,22 +11144,22 @@
         <v>2004</v>
       </c>
       <c r="F382" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G382">
         <v>1.5795519905141138</v>
       </c>
       <c r="H382" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J382" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K382" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L382" t="s">
         <v>58</v>
-      </c>
-      <c r="L382" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -11178,22 +11181,22 @@
         <v>2005</v>
       </c>
       <c r="F383" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G383">
         <v>1.5742273401858171</v>
       </c>
       <c r="H383" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J383" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K383" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L383" t="s">
         <v>58</v>
-      </c>
-      <c r="L383" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -11215,22 +11218,22 @@
         <v>2006</v>
       </c>
       <c r="F384" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G384">
         <v>1.5770757432902991</v>
       </c>
       <c r="H384" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J384" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K384" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L384" t="s">
         <v>58</v>
-      </c>
-      <c r="L384" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11252,22 +11255,22 @@
         <v>2007</v>
       </c>
       <c r="F385" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G385">
         <v>1.5810502599514888</v>
       </c>
       <c r="H385" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J385" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K385" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L385" t="s">
         <v>58</v>
-      </c>
-      <c r="L385" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11289,22 +11292,22 @@
         <v>2008</v>
       </c>
       <c r="F386" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G386">
         <v>1.5868573677903355</v>
       </c>
       <c r="H386" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J386" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K386" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L386" t="s">
         <v>58</v>
-      </c>
-      <c r="L386" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11326,22 +11329,22 @@
         <v>2009</v>
       </c>
       <c r="F387" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G387">
         <v>1.5941421065031705</v>
       </c>
       <c r="H387" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J387" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K387" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L387" t="s">
         <v>58</v>
-      </c>
-      <c r="L387" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11363,22 +11366,22 @@
         <v>2010</v>
       </c>
       <c r="F388" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G388">
         <v>1.6027499464678339</v>
       </c>
       <c r="H388" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J388" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K388" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L388" t="s">
         <v>58</v>
-      </c>
-      <c r="L388" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11400,22 +11403,22 @@
         <v>2011</v>
       </c>
       <c r="F389" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G389">
         <v>1.5952803755147054</v>
       </c>
       <c r="H389" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J389" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K389" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L389" t="s">
         <v>58</v>
-      </c>
-      <c r="L389" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11437,22 +11440,22 @@
         <v>2012</v>
       </c>
       <c r="F390" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G390">
         <v>1.5881061022973417</v>
       </c>
       <c r="H390" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J390" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K390" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L390" t="s">
         <v>58</v>
-      </c>
-      <c r="L390" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11474,22 +11477,22 @@
         <v>2013</v>
       </c>
       <c r="F391" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G391">
         <v>1.580437033556165</v>
       </c>
       <c r="H391" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J391" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K391" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L391" t="s">
         <v>58</v>
-      </c>
-      <c r="L391" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11511,22 +11514,22 @@
         <v>2014</v>
       </c>
       <c r="F392" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G392">
         <v>1.5720933219641362</v>
       </c>
       <c r="H392" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J392" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K392" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L392" t="s">
         <v>58</v>
-      </c>
-      <c r="L392" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11548,22 +11551,22 @@
         <v>2015</v>
       </c>
       <c r="F393" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G393">
         <v>1.5638595650126308</v>
       </c>
       <c r="H393" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J393" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K393" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L393" t="s">
         <v>58</v>
-      </c>
-      <c r="L393" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11585,22 +11588,22 @@
         <v>2016</v>
       </c>
       <c r="F394" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G394">
         <v>1.5655707775003618</v>
       </c>
       <c r="H394" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J394" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K394" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L394" t="s">
         <v>58</v>
-      </c>
-      <c r="L394" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11622,22 +11625,22 @@
         <v>2017</v>
       </c>
       <c r="F395" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G395">
         <v>1.5669067656006332</v>
       </c>
       <c r="H395" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J395" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K395" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L395" t="s">
         <v>58</v>
-      </c>
-      <c r="L395" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11659,22 +11662,22 @@
         <v>2018</v>
       </c>
       <c r="F396" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G396">
         <v>1.5680560012794198</v>
       </c>
       <c r="H396" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J396" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K396" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L396" t="s">
         <v>58</v>
-      </c>
-      <c r="L396" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11696,22 +11699,22 @@
         <v>2019</v>
       </c>
       <c r="F397" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G397">
         <v>1.56899278989477</v>
       </c>
       <c r="H397" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J397" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K397" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L397" t="s">
         <v>58</v>
-      </c>
-      <c r="L397" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11733,22 +11736,22 @@
         <v>2020</v>
       </c>
       <c r="F398" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G398">
         <v>1.5830542936008962</v>
       </c>
       <c r="H398" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J398" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K398" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L398" t="s">
         <v>58</v>
-      </c>
-      <c r="L398" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -11770,22 +11773,22 @@
         <v>2021</v>
       </c>
       <c r="F399" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G399">
         <v>1.5781479220274037</v>
       </c>
       <c r="H399" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J399" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K399" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L399" t="s">
         <v>58</v>
-      </c>
-      <c r="L399" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -11807,23 +11810,23 @@
         <v>1990</v>
       </c>
       <c r="F400" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G400">
         <f>G368</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H400" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J400" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K400" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L400" t="s">
         <v>58</v>
-      </c>
-      <c r="L400" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -11845,23 +11848,23 @@
         <v>1991</v>
       </c>
       <c r="F401" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G401">
         <f t="shared" ref="G401:G431" si="15">G369</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H401" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J401" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K401" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L401" t="s">
         <v>58</v>
-      </c>
-      <c r="L401" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -11883,23 +11886,23 @@
         <v>1992</v>
       </c>
       <c r="F402" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G402">
         <f t="shared" si="15"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H402" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J402" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K402" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L402" t="s">
         <v>58</v>
-      </c>
-      <c r="L402" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -11921,23 +11924,23 @@
         <v>1993</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G403">
         <f t="shared" si="15"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H403" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J403" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K403" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L403" t="s">
         <v>58</v>
-      </c>
-      <c r="L403" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -11959,23 +11962,23 @@
         <v>1994</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G404">
         <f t="shared" si="15"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H404" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J404" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K404" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L404" t="s">
         <v>58</v>
-      </c>
-      <c r="L404" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -11997,23 +12000,23 @@
         <v>1995</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G405">
         <f t="shared" si="15"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H405" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J405" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K405" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L405" t="s">
         <v>58</v>
-      </c>
-      <c r="L405" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -12035,23 +12038,23 @@
         <v>1996</v>
       </c>
       <c r="F406" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G406">
         <f t="shared" si="15"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H406" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J406" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K406" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L406" t="s">
         <v>58</v>
-      </c>
-      <c r="L406" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -12073,23 +12076,23 @@
         <v>1997</v>
       </c>
       <c r="F407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G407">
         <f t="shared" si="15"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H407" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J407" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K407" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L407" t="s">
         <v>58</v>
-      </c>
-      <c r="L407" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -12111,23 +12114,23 @@
         <v>1998</v>
       </c>
       <c r="F408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G408">
         <f t="shared" si="15"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H408" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J408" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K408" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L408" t="s">
         <v>58</v>
-      </c>
-      <c r="L408" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -12149,23 +12152,23 @@
         <v>1999</v>
       </c>
       <c r="F409" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G409">
         <f t="shared" si="15"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H409" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J409" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K409" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L409" t="s">
         <v>58</v>
-      </c>
-      <c r="L409" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -12187,23 +12190,23 @@
         <v>2000</v>
       </c>
       <c r="F410" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G410">
         <f t="shared" si="15"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H410" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J410" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K410" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L410" t="s">
         <v>58</v>
-      </c>
-      <c r="L410" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -12225,23 +12228,23 @@
         <v>2001</v>
       </c>
       <c r="F411" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G411">
         <f t="shared" si="15"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H411" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J411" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K411" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L411" t="s">
         <v>58</v>
-      </c>
-      <c r="L411" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -12263,23 +12266,23 @@
         <v>2002</v>
       </c>
       <c r="F412" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G412">
         <f t="shared" si="15"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H412" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J412" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K412" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L412" t="s">
         <v>58</v>
-      </c>
-      <c r="L412" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -12301,23 +12304,23 @@
         <v>2003</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <f t="shared" si="15"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H413" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J413" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K413" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L413" t="s">
         <v>58</v>
-      </c>
-      <c r="L413" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12339,23 +12342,23 @@
         <v>2004</v>
       </c>
       <c r="F414" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G414">
         <f t="shared" si="15"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H414" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J414" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K414" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L414" t="s">
         <v>58</v>
-      </c>
-      <c r="L414" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12377,23 +12380,23 @@
         <v>2005</v>
       </c>
       <c r="F415" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G415">
         <f t="shared" si="15"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H415" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J415" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K415" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L415" t="s">
         <v>58</v>
-      </c>
-      <c r="L415" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12415,23 +12418,23 @@
         <v>2006</v>
       </c>
       <c r="F416" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G416">
         <f t="shared" si="15"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H416" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J416" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K416" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L416" t="s">
         <v>58</v>
-      </c>
-      <c r="L416" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12453,23 +12456,23 @@
         <v>2007</v>
       </c>
       <c r="F417" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G417">
         <f t="shared" si="15"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H417" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J417" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K417" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L417" t="s">
         <v>58</v>
-      </c>
-      <c r="L417" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12491,23 +12494,23 @@
         <v>2008</v>
       </c>
       <c r="F418" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <f t="shared" si="15"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H418" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J418" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K418" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L418" t="s">
         <v>58</v>
-      </c>
-      <c r="L418" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12529,23 +12532,23 @@
         <v>2009</v>
       </c>
       <c r="F419" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G419">
         <f t="shared" si="15"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H419" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J419" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K419" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L419" t="s">
         <v>58</v>
-      </c>
-      <c r="L419" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12567,23 +12570,23 @@
         <v>2010</v>
       </c>
       <c r="F420" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <f t="shared" si="15"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H420" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J420" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K420" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L420" t="s">
         <v>58</v>
-      </c>
-      <c r="L420" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12605,23 +12608,23 @@
         <v>2011</v>
       </c>
       <c r="F421" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G421">
         <f t="shared" si="15"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H421" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J421" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K421" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L421" t="s">
         <v>58</v>
-      </c>
-      <c r="L421" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12643,23 +12646,23 @@
         <v>2012</v>
       </c>
       <c r="F422" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G422">
         <f t="shared" si="15"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H422" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J422" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K422" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L422" t="s">
         <v>58</v>
-      </c>
-      <c r="L422" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12681,23 +12684,23 @@
         <v>2013</v>
       </c>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G423">
         <f t="shared" si="15"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H423" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J423" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K423" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L423" t="s">
         <v>58</v>
-      </c>
-      <c r="L423" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12719,23 +12722,23 @@
         <v>2014</v>
       </c>
       <c r="F424" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G424">
         <f t="shared" si="15"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H424" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J424" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L424" t="s">
         <v>58</v>
-      </c>
-      <c r="L424" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12757,23 +12760,23 @@
         <v>2015</v>
       </c>
       <c r="F425" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G425">
         <f t="shared" si="15"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H425" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J425" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L425" t="s">
         <v>58</v>
-      </c>
-      <c r="L425" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12795,23 +12798,23 @@
         <v>2016</v>
       </c>
       <c r="F426" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G426">
         <f t="shared" si="15"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H426" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J426" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K426" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L426" t="s">
         <v>58</v>
-      </c>
-      <c r="L426" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12833,23 +12836,23 @@
         <v>2017</v>
       </c>
       <c r="F427" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G427">
         <f t="shared" si="15"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H427" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J427" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K427" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L427" t="s">
         <v>58</v>
-      </c>
-      <c r="L427" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -12871,23 +12874,23 @@
         <v>2018</v>
       </c>
       <c r="F428" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G428">
         <f t="shared" si="15"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H428" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J428" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K428" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L428" t="s">
         <v>58</v>
-      </c>
-      <c r="L428" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -12909,23 +12912,23 @@
         <v>2019</v>
       </c>
       <c r="F429" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G429">
         <f t="shared" si="15"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H429" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J429" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K429" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L429" t="s">
         <v>58</v>
-      </c>
-      <c r="L429" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -12947,23 +12950,23 @@
         <v>2020</v>
       </c>
       <c r="F430" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G430">
         <f t="shared" si="15"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H430" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J430" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K430" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L430" t="s">
         <v>58</v>
-      </c>
-      <c r="L430" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -12985,46 +12988,49 @@
         <v>2021</v>
       </c>
       <c r="F431" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G431">
         <f t="shared" si="15"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H431" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J431" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K431" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L431" t="s">
         <v>58</v>
-      </c>
-      <c r="L431" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L847" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J14:L14 J15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{D11E7F0F-E127-5643-8C05-AF28547E6E27}"/>
-    <hyperlink ref="K15" r:id="rId2" xr:uid="{AB382EBD-FD85-A94C-A2D5-AE3D74C6342F}"/>
-    <hyperlink ref="K368" r:id="rId3" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
-    <hyperlink ref="K369:K431" r:id="rId4" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
-    <hyperlink ref="K63" r:id="rId5" xr:uid="{B4C979F0-CB40-D44F-80F8-EC4F0C2F0551}"/>
-    <hyperlink ref="K48:K62" r:id="rId6" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{6CDA963B-5785-1846-A92A-89D5E4245EB6}"/>
-    <hyperlink ref="K64:K79" r:id="rId7" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{6EC17ED5-E73F-7E44-9016-F5E6C525053F}"/>
-    <hyperlink ref="K82:K111" r:id="rId8" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{FA7E71C9-CA95-2248-9376-898C9CD79CCF}"/>
-    <hyperlink ref="K359" r:id="rId9" xr:uid="{C98DEEE7-8755-A64F-BF99-4D83AE677B5E}"/>
-    <hyperlink ref="K360" r:id="rId10" xr:uid="{6A7A7159-5A67-8944-9C23-066EF0975863}"/>
-    <hyperlink ref="K361" r:id="rId11" xr:uid="{50B9FD35-44C4-084D-95EF-F5EFCC0770B1}"/>
-    <hyperlink ref="K362" r:id="rId12" xr:uid="{C701BE90-798C-304E-8387-22421B7AFB01}"/>
-    <hyperlink ref="K363" r:id="rId13" xr:uid="{864CCE2F-6A76-0644-92A5-CC64E45701A9}"/>
-    <hyperlink ref="K364" r:id="rId14" xr:uid="{F97D2F27-9B07-8B47-AB96-B2FEEEA59271}"/>
-    <hyperlink ref="K365" r:id="rId15" xr:uid="{8211664D-6679-9E4C-99ED-EFA9E8857E3E}"/>
-    <hyperlink ref="K366" r:id="rId16" xr:uid="{9EF4A8A6-BFAB-E34E-AE34-4B4CAE57DC01}"/>
-    <hyperlink ref="K367" r:id="rId17" xr:uid="{B954FD7D-79CC-3848-B491-51B2406D60B9}"/>
+    <hyperlink ref="K368" r:id="rId1" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
+    <hyperlink ref="K369:K431" r:id="rId2" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
+    <hyperlink ref="K63" r:id="rId3" xr:uid="{B4C979F0-CB40-D44F-80F8-EC4F0C2F0551}"/>
+    <hyperlink ref="K48:K62" r:id="rId4" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{6CDA963B-5785-1846-A92A-89D5E4245EB6}"/>
+    <hyperlink ref="K64:K79" r:id="rId5" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{6EC17ED5-E73F-7E44-9016-F5E6C525053F}"/>
+    <hyperlink ref="K82:K111" r:id="rId6" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{FA7E71C9-CA95-2248-9376-898C9CD79CCF}"/>
+    <hyperlink ref="K359" r:id="rId7" xr:uid="{C98DEEE7-8755-A64F-BF99-4D83AE677B5E}"/>
+    <hyperlink ref="K360" r:id="rId8" xr:uid="{6A7A7159-5A67-8944-9C23-066EF0975863}"/>
+    <hyperlink ref="K361" r:id="rId9" xr:uid="{50B9FD35-44C4-084D-95EF-F5EFCC0770B1}"/>
+    <hyperlink ref="K362" r:id="rId10" xr:uid="{C701BE90-798C-304E-8387-22421B7AFB01}"/>
+    <hyperlink ref="K363" r:id="rId11" xr:uid="{864CCE2F-6A76-0644-92A5-CC64E45701A9}"/>
+    <hyperlink ref="K364" r:id="rId12" xr:uid="{F97D2F27-9B07-8B47-AB96-B2FEEEA59271}"/>
+    <hyperlink ref="K365" r:id="rId13" xr:uid="{8211664D-6679-9E4C-99ED-EFA9E8857E3E}"/>
+    <hyperlink ref="K366" r:id="rId14" xr:uid="{9EF4A8A6-BFAB-E34E-AE34-4B4CAE57DC01}"/>
+    <hyperlink ref="K367" r:id="rId15" xr:uid="{B954FD7D-79CC-3848-B491-51B2406D60B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
